--- a/media/RedfishTestcases.xlsx
+++ b/media/RedfishTestcases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t xml:space="preserve">Redfish/Rest Testcases</t>
   </si>
@@ -28,12 +28,92 @@
     <t xml:space="preserve">Steps</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">checkChassisFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">….            Login to ECM/ISM/CM2.0 via REST ...             Validate ECM/ISM/CM2.0 Manager URL ...             Clear Event logs ...             Clear Health logs ...             ECM/ISM/CM2.0 Reset ...             Verify No errors in Event logs ...             Verify No errors in Health/Management logs ...            Validate Chassis Informations(Chassis Name, Indicator LED,AutoPowerOn,Model,State,UUID,  MAC Address.) ...             Validate the Thermal/Fan Information(Fan Speed,
-                  Fan state) ...     Validate the Power Information(SerialNumber
-          ,ACInputStatus,PowercapMode, Power State) ...             Logout from ECM/ISM/CM2.0</t>
+    <t xml:space="preserve">Login to ECM/ISM/CM2.0 via REST ...         
+Validate ECM/ISM/CM2.0 Manager URL ...             
+Clear Event logs ...             
+Clear Health logs ...            
+ECM/ISM/CM2.0 Reset ...           
+Verify No errors in Event logs ...     
+Verify No errors in Health/Management logs ...       
+Validate Chassis Informations(Chassis Name, Indicator LED,AutoPowerOn,Model,State,UUID,  MAC Address.) ...  
+Validate the Thermal/Fan Information(Fan Speed,Fan state) ...   
+Validate the Power Information(SerialNumber,ACInputStatus,PowercapMode, Power State) ...        
+Logout from ECM/ISM/CM2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login to ECM/ISM/CM2.0 via REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECM/ISM/CM2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip addressREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the Power           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear Event logs             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear Health logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate ECM/ISM/CM2.0 Manager URL             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout from ECM/ISM/CM2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify No errors in Health/Management logs Verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health/Management logs</t>
   </si>
   <si>
     <t xml:space="preserve">MultipleLoginLogout(Run for 
@@ -87,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">...             Login to CM\ILO via REST ...             Set Node Power as OFF ...             Validate Node power is OFF ...             Set Node Boot Order ...             Get Node Boot Order ...             Set Node BootSource OverRide ...             Get Node BootSource OverRide ...             Set Node Power as ON ...             Validate Node power is ON ...             Logout from ILO/CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear logs</t>
   </si>
 </sst>
 </file>
@@ -176,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,11 +268,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,328 +305,447 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B65536"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H81" activeCellId="0" sqref="H81"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A108" activeCellId="0" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="2"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="2"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2"/>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="2"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="2"/>
+      <c r="B52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="2"/>
+      <c r="B54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2"/>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="2"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="3"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="3"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="3"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="3"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="3"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="3"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="3"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="3"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="3"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="3"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="3"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="3"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="3"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="3"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="3"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="3"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="3"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="3"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="3"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="3"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="3"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="3"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="3"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="3"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="3"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="3"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="3"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="3"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="3"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="3"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="3"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="3"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="6"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="6"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="6"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="6"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="6"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/media/RedfishTestcases.xlsx
+++ b/media/RedfishTestcases.xlsx
@@ -20,27 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Redfish/Rest Testcases</t>
   </si>
   <si>
     <t xml:space="preserve">Steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Value 2</t>
   </si>
   <si>
     <t xml:space="preserve">checkChassisFunction</t>
@@ -57,63 +42,6 @@
 Validate the Thermal/Fan Information(Fan Speed,Fan state) ...   
 Validate the Power Information(SerialNumber,ACInputStatus,PowercapMode, Power State) ...        
 Logout from ECM/ISM/CM2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login to ECM/ISM/CM2.0 via REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECM/ISM/CM2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip addressREST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate the Power           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear Event logs             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">event logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear Health logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate ECM/ISM/CM2.0 Manager URL             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manager URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logout from ECM/ISM/CM2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify No errors in Health/Management logs Verify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health/Management logs</t>
   </si>
   <si>
     <t xml:space="preserve">MultipleLoginLogout(Run for 
@@ -305,18 +233,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A108" activeCellId="0" sqref="A108"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H:H"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -328,116 +256,54 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4"/>
-      <c r="C6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4"/>
@@ -453,10 +319,10 @@
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,15 +337,15 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,10 +359,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,10 +388,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,10 +417,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +443,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B53" s="4"/>
     </row>
@@ -592,10 +458,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,10 +517,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,46 +576,44 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:B12"/>
